--- a/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-medicationadministration.xlsx
@@ -352,7 +352,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+    <t>「リソースコンテンツの言語」</t>
   </si>
   <si>
     <t>リソースが書かれている基本言語。</t>
@@ -364,7 +364,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>「人間の言語。」(Ningen no gengo.)</t>
+    <t>「人間の言語。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -410,7 +410,7 @@
 </t>
   </si>
   <si>
-    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+    <t>「含まれている、インラインのリソース」</t>
   </si>
   <si>
     <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
@@ -1238,7 +1238,7 @@
     <t>MedicationAdministration.performer.function</t>
   </si>
   <si>
-    <t>「パフォーマンスの種類」(Pafōmansu no shurui)</t>
+    <t>「パフォーマンスの種類」</t>
   </si>
   <si>
     <t>演者の医薬品投与における関与タイプを区別します。 (Ensha no iyakuhin tōyo ni okeru kan'yo taipu o kubetsushimasu.)</t>
@@ -1263,7 +1263,7 @@
 </t>
   </si>
   <si>
-    <t>「薬剤投与を行ったのは誰ですか？」(Yakuzaiteiyogyou o okonatta no wa dare desu ka?)</t>
+    <t>「薬剤投与を行ったのは誰ですか？」</t>
   </si>
   <si>
     <t>薬剤投与を行った人物または物品を示す</t>
